--- a/biology/Médecine/Biopsie/Biopsie.xlsx
+++ b/biology/Médecine/Biopsie/Biopsie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une biopsie  (du grec βιός / biós, « vie » et ὄψις / ópsis, « vue ») est le prélèvement d'une très petite partie d'un organe ou d'un tissu pour effectuer des examens concernant un être vivant. Elle peut être effectuée au moyen d'une aiguille ou par frottis sur tout type de tissu humain. Cette technique permet de déterminer ou de confirmer une pathologie soupçonnée. Elle est largement utilisée en oncologie, mais aussi en génétique, en neurologie, en dermatologie ou encore en hépatologie. Certaines maladies ne peuvent être identifiées que grâce à cet examen.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La biopsie est utilisée pour obtenir un morceau de tissu à un endroit précis. Le prélèvement peut être soit de toute la région ciblée soit d’une partie. Il peut être fait de trois façons différentes, en fonction de la zone que l'on prélève. On peut donc effectuer un prélèvement en surface du tissu, un prélèvement en profondeur à l’aide d’une aiguille, ou encore un prélèvement par aspiration avec une seringue-aiguille.
-Des échantillons sont parfois recueillis à l'aide de forceps placés en bout d'un dispositif optique appelé endoscope. Le médecin peut visualiser la surface des tissus (comme la paroi du gros intestin) grâce à cet instrument et utiliser une pince pour prélever les tissus de la région désirée[1].
+Des échantillons sont parfois recueillis à l'aide de forceps placés en bout d'un dispositif optique appelé endoscope. Le médecin peut visualiser la surface des tissus (comme la paroi du gros intestin) grâce à cet instrument et utiliser une pince pour prélever les tissus de la région désirée.
 Dans d'autres cas, l'échantillon de tissu peut être collecté grâce à une aiguille hypodermique. Il s'agit d'une grande aiguille creuse montée sur une seringue qui peut traverser la peau pour injecter des substances dans le corps. On utilise cette aiguille pour prélever des échantillons de foie ou de  reins par exemple.
 En ce qui concerne les échantillons de muscles et de nerfs, on prélève une fraction de la cible après incision au bistouri.
-Pour une biopsie obtenue à l’aide d’une aiguille, l’échantillonnage dépend de la conception de l'aiguille et de l'énergie de son insertion dans le tissu. L'aiguille utilisée est un tube avec une pointe capable de perforer les tissus. Comme l'aiguille s’enfonce dans le tissu, ce dernier va s’accumuler dans le tube. Quand elle est retirée du tissu, l’échantillon reste dans le tube et l'aiguille peut être récupérée pour l’analyse[2]. Les échantillons de biopsie sont souvent examinés au moyen d'un microscope. L'objectif est de rechercher des anomalies dans les cellules des tissus. Cet examen peut se combiner d'une coloration de l'échantillon, ce qui permet notamment de détecter des molécules cibles. Les échantillons prélevés peuvent être utilisés pour divers tests biochimiques, notamment pour tester la présence et l'activité de certains gènes.
+Pour une biopsie obtenue à l’aide d’une aiguille, l’échantillonnage dépend de la conception de l'aiguille et de l'énergie de son insertion dans le tissu. L'aiguille utilisée est un tube avec une pointe capable de perforer les tissus. Comme l'aiguille s’enfonce dans le tissu, ce dernier va s’accumuler dans le tube. Quand elle est retirée du tissu, l’échantillon reste dans le tube et l'aiguille peut être récupérée pour l’analyse. Les échantillons de biopsie sont souvent examinés au moyen d'un microscope. L'objectif est de rechercher des anomalies dans les cellules des tissus. Cet examen peut se combiner d'une coloration de l'échantillon, ce qui permet notamment de détecter des molécules cibles. Les échantillons prélevés peuvent être utilisés pour divers tests biochimiques, notamment pour tester la présence et l'activité de certains gènes.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme biopsie a été utilisé pour la première fois par Besnier en 1879 pour désigner la technique employée lors du prélèvement sur le vivant d'un fragment d'organe ou de tissu.  Cette technique permet d’examiner au microscope l'échantillon prélevé. Cela permet d'apporter un diagnostic de certitude. On peut par exemple déterminer s'il y a des cellules cancéreuses ou non au niveau de la région précise où la biopsie a été effectuée.
 </t>
@@ -577,7 +593,9 @@
           <t>Balance bénéfice-risque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de permettre de savoir s'il y a ou non une pathologie à un endroit précis, la biopsie peut donner un degré de gravité. Cela permet de prévoir le niveau de soin nécessaire.
 Par exemple, le traitement d'un cancer n'est pas le même en fonction de la gravité des lésions, de la variété des cellules cancéreuses et de son étendue.  En effet, un cancer peut avoir des conséquences très différentes selon son niveau d'envahissement, à savoir s'il touche ou non certains tissus voisins ou à distance. Étant donné que les soins sont différents en fonction des cancers, il est primordial de savoir avec précision de quelle pathologie il s'agit.
@@ -620,10 +638,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biopsie transcutanée
-On l'appelle également ponction-biopsie. Pour l'effectuer, on utilise un trocart qui est monté sur un manche et qui est contenu dans une canule. Le geste biopsique est guidé grâce à l'échographie ou grâce au scanner. On associe parfois une aspiration à la seringue. Le forage permet d'obtenir une carotte de l'organe que l'on désire analyser : foie, rein, sein, poumon, plèvre…
-Exemples d'application
-Biopsie musculaire
+          <t>Biopsie transcutanée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On l'appelle également ponction-biopsie. Pour l'effectuer, on utilise un trocart qui est monté sur un manche et qui est contenu dans une canule. Le geste biopsique est guidé grâce à l'échographie ou grâce au scanner. On associe parfois une aspiration à la seringue. Le forage permet d'obtenir une carotte de l'organe que l'on désire analyser : foie, rein, sein, poumon, plèvre…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biopsie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biopsie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biopsie transcutanée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Exemples d'application</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biopsie musculaire
 La biopsie musculaire permet d'obtenir un morceau de muscle par incision ou grâce à l'utilisation d'une aiguille pour un prélèvement en profondeur.
 Elle est réalisée pour de distinguer les troubles nerveux des troubles musculaires. On la pratique aussi dans le but d'identifier les troubles musculaires telle que la dystrophie par exemple. Elle permet également de déterminer l’activité métabolique du muscle, ou de voir s'il y a des infections du muscle par des parasites. La biopsie d'un muscle implique le prélèvement de nerfs car ils sont très présent à cet endroit. Mais cela n'entraîne pas de conséquences importantes, car le prélèvement est très petit.
 Biopsie de nerf
@@ -632,7 +694,7 @@
 Les lieux les plus fréquents pour les biopsies sont le nerf sural au niveau de la cheville et le nerf radial superficiel du poignet. On fait une anesthésie locale avant la biopsie. Ensuite, on fait une incision puis on prend un petit morceau de nerf. Souvent, on fait aussi une biopsie du muscle adjacent en même temps.
 La procédure comporte quelques risques comme des réactions allergiques à l'anesthésie, des infections suite à l'examen ou encore des engourdissements causés par le retrait d'une partie du nerf.
 Biopsie des glandes salivaires
-La biopsie des glandes salivaires[3] accessoires est devenue un examen systématique dans la recherche de l'étiologie d'un syndrome sec ou dans le bilan diagnostique d'une sarcoïdose, d'une amylose ou d'une autre maladie auto-immune.
+La biopsie des glandes salivaires accessoires est devenue un examen systématique dans la recherche de l'étiologie d'un syndrome sec ou dans le bilan diagnostique d'une sarcoïdose, d'une amylose ou d'une autre maladie auto-immune.
 Il s'agit d'un geste simple qui consiste en une incision de quelques millimètres de la lèvre inférieure. Avant l'examen, la bouche doit être propre. Le patient est couché sur le dos, la tête légèrement surélevée. Une anesthésie est pratiquée par une injection locale à l'aide d'une aiguille sous cutanée très fine. À l'aide d'une incision de 1,5 à 2 cm de longueur de la muqueuse labiale inférieure. On isole et on prélève au minimum 5 à 6 glandes salivaires accessoires. La plaie est ensuite suturée.
 Après l'examen, pour éviter l'accrochage des aliments sur un fil de suture, il faut rincer la bouche après chaque repas. Les plats épicés ou acides sont à éviter pendant quelques jours.
 Cet examen est souvent utilisé en pratique courante en raison de son innocuité (peu douloureux, peu d'incidents secondaires) et de l'accessibilité des glandes. De plus, il y a très peu d'effets secondaires, seulement parfois des hématomes de la lèvre ou une anesthésie locale régressive. D'une manière générale, les résultats obtenus sont très satisfaisants. Certains ont prôné l'étude des glandes salivaires palatines ou celle de la glande sublinguale. Cela permet l'obtention d'une plus grande quantité de parenchyme salivaire.
@@ -648,15 +710,159 @@
 La biopsie intervient le plus souvent après des examens plus faciles à réaliser comme les radiographies ou les examens sanguins. L’examen ne peut se faire sans le consentement libre et éclairé du patient. La biopsie doit être réalisée sur un os proche de la surface de la peau et de préférence loin des organes et des vaisseaux sanguins. Pour cela la biopsie osseuse se fait le plus souvent sur les crêtes iliaques.
 L’acte consiste à insérer une aiguille appelée trocart. Il est constitué d'une tige en métal, de forme cylindrique et terminée par une pointe triangulaire très coupante. Cette pointe est suppléée par un outil appelé mandrin qui permet de lui faire subir une rotation. Cette aiguille permet de prélever un morceau d’os à la façon d’un carottage et d'extraire celui-ci rapidement. Le but est de réaliser un point de compression très rapidement après l’extraction afin d’éviter toute hémorragie. Le prélèvement est ensuite placé dans un liquide de fixation pour l’envoyer au laboratoire d’analyse. La biopsie osseuse s’inscrit dans une démarche thérapeutique et ne peut être envisagée comme une intervention exploratrice. C’est pourquoi cet examen est souvent complété par un traitement chirurgical, notamment pour les tumeurs bénignes. Lors de l’acte chirurgical, les praticiens sont souvent aidés par des outils d’imagerie tels que les scanners. Cela permet de bien situer la zone où effectuer le prélèvement.
 La biopsie osseuse n’est pas un acte anodin. En effet, un des risques les plus importants de cet acte est la fragilisation de l’os pouvant aller jusqu'à sa fracture. L'intervention comporte aussi des risques d'hémorragies. C'est pourquoi après l’examen, il est recommandé de rester au moins 24 h allongé afin d’éviter tout saignements au niveau de la réalisation de la biopsie.
-Biopsie endoscopique
-Pour l'effectuer, on utilise un endoscope. C'est un appareil qui permet d'observer et de faire la ponction en même temps. Le but de cet examen est de prélever un petit fragment d'organe ou de tumeur grâce à des instruments introduits en même temps que l'endoscope. Parfois, des instruments opératoires permettant de traiter la lésion sont utilisés avec l'endoscopie. Le tube digestif est souvent exploré de cette façon. Il s'agit de la fibroscopie gastroduodénale et de la coloscopie. On procède de la même façon pour l'utérus, la vessie, et les bronches. L'abdomen, par l'intermédiaire d'une petite incision cutanée, est également explorable grâce à l'endoscopie. La biopsie de certains organes abdominaux (ovaires, ganglions, péritoine) est possible. De la même manière, la plèvre est visualisée au cours d'une cœlioscopie ou d'une pleuroscopie.
-Biopsie chirurgicale
-Elle est réalisée par le chirurgien au bloc opératoire. Elle est utilisée soit quand la lésion est trop profonde, soit quand on désire faire en même temps un geste thérapeutique. On parle de biopsie « extemporanée » quand l'examen au microscope est effectué immédiatement et que le chirurgien attend les résultats pour poursuivre ou pas son opération.
-Exemple : Biopsie cérébrale
-Une IRM ou un scanner sont souvent réalisés avant la procédure pour localiser la zone où la biopsie sera réalisée. On effectue la biopsie avec une aiguille après avoir ouvert la boîte crânienne. Depuis le milieu des années 1990, la tête du patient n’est plus immobilisée au cours de la procédure par une armature externe. La localisation précise est donnée par un système informatique. Cela évite de créer des dommages au niveau d'autres régions du cerveau. La biopsie du cerveau est une procédure délicate qui comporte des risques sérieux. En effet, contrairement à une biopsie de la peau, affecter quelques nerfs n'est pas le seul risque. Le cerveau est une zone sensible et complexe, et travailler à ce niveau là peut entraîner des dommages irréversibles pour le patient. Pour la réalisation de biopsies cérébrales très précises, le chirurgien peut être assisté par un dispositif robotisé d’assistance à la neurochirurgie. Ce système permet d'effectuer l’acte chirurgical de manière sûre et fiable.
-En 2013, 2014 et 2016, la startup Medimprint valide à Clinatec au cours d’essais précliniques un dispositif de biopsie dont le stylet chirurgical possède à son extrémité une puce de silicium microstructuré. Ce stylet à empreinte tissulaire n'enlevant que 50 micromètres de tissu biologique au lieu des 500 à 1 000 pour les biopsies traditionnelles[4].
-Biopsie-exérèse
-Elle permet de retirer la totalité d'une lésion afin de pratiquer un examen au microscope, et donc un examen plus complet. Elle est souvent utilisée en médecine de la grossesse, afin de faire des prélèvements au niveau du placenta pour déterminer s'il y a ou non une anomalie fœtale. On l'effectue au niveau du col de l'utérus ou de la paroi abdominale de la femme qui attend le bébé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Biopsie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biopsie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biopsie endoscopique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'effectuer, on utilise un endoscope. C'est un appareil qui permet d'observer et de faire la ponction en même temps. Le but de cet examen est de prélever un petit fragment d'organe ou de tumeur grâce à des instruments introduits en même temps que l'endoscope. Parfois, des instruments opératoires permettant de traiter la lésion sont utilisés avec l'endoscopie. Le tube digestif est souvent exploré de cette façon. Il s'agit de la fibroscopie gastroduodénale et de la coloscopie. On procède de la même façon pour l'utérus, la vessie, et les bronches. L'abdomen, par l'intermédiaire d'une petite incision cutanée, est également explorable grâce à l'endoscopie. La biopsie de certains organes abdominaux (ovaires, ganglions, péritoine) est possible. De la même manière, la plèvre est visualisée au cours d'une cœlioscopie ou d'une pleuroscopie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biopsie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biopsie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biopsie chirurgicale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est réalisée par le chirurgien au bloc opératoire. Elle est utilisée soit quand la lésion est trop profonde, soit quand on désire faire en même temps un geste thérapeutique. On parle de biopsie « extemporanée » quand l'examen au microscope est effectué immédiatement et que le chirurgien attend les résultats pour poursuivre ou pas son opération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biopsie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biopsie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biopsie chirurgicale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Exemple : Biopsie cérébrale</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une IRM ou un scanner sont souvent réalisés avant la procédure pour localiser la zone où la biopsie sera réalisée. On effectue la biopsie avec une aiguille après avoir ouvert la boîte crânienne. Depuis le milieu des années 1990, la tête du patient n’est plus immobilisée au cours de la procédure par une armature externe. La localisation précise est donnée par un système informatique. Cela évite de créer des dommages au niveau d'autres régions du cerveau. La biopsie du cerveau est une procédure délicate qui comporte des risques sérieux. En effet, contrairement à une biopsie de la peau, affecter quelques nerfs n'est pas le seul risque. Le cerveau est une zone sensible et complexe, et travailler à ce niveau là peut entraîner des dommages irréversibles pour le patient. Pour la réalisation de biopsies cérébrales très précises, le chirurgien peut être assisté par un dispositif robotisé d’assistance à la neurochirurgie. Ce système permet d'effectuer l’acte chirurgical de manière sûre et fiable.
+En 2013, 2014 et 2016, la startup Medimprint valide à Clinatec au cours d’essais précliniques un dispositif de biopsie dont le stylet chirurgical possède à son extrémité une puce de silicium microstructuré. Ce stylet à empreinte tissulaire n'enlevant que 50 micromètres de tissu biologique au lieu des 500 à 1 000 pour les biopsies traditionnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Biopsie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biopsie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biopsie-exérèse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet de retirer la totalité d'une lésion afin de pratiquer un examen au microscope, et donc un examen plus complet. Elle est souvent utilisée en médecine de la grossesse, afin de faire des prélèvements au niveau du placenta pour déterminer s'il y a ou non une anomalie fœtale. On l'effectue au niveau du col de l'utérus ou de la paroi abdominale de la femme qui attend le bébé.
 </t>
         </is>
       </c>
